--- a/TestData/Data/Repports/TrainingLevel.xlsx
+++ b/TestData/Data/Repports/TrainingLevel.xlsx
@@ -22,19 +22,19 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity T</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity TS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Bac Pro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity FQ</x:t>
+    <x:t>Insertion de l'entity T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Add_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity TS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Bac Pro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity FQ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -402,7 +402,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="27.270625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
